--- a/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 13,64</t>
+          <t>2,15; 14,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 18,11</t>
+          <t>4,05; 18,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 44,19</t>
+          <t>23,0; 43,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 4,18</t>
+          <t>-9,76; 4,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 13,46</t>
+          <t>-2,79; 14,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 23,72</t>
+          <t>7,78; 23,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,74</t>
+          <t>-2,33; 6,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 13,66</t>
+          <t>2,44; 13,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 29,3</t>
+          <t>16,63; 29,32</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1491,09</t>
+          <t>9,25; 1424,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,94; 1879,62</t>
+          <t>26,0; 1865,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>301,63; 4985,42</t>
+          <t>333,0; 4304,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 74,57</t>
+          <t>-71,92; 82,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 222,66</t>
+          <t>-23,34; 230,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,56; 405,87</t>
+          <t>51,21; 358,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 143,8</t>
+          <t>-30,96; 160,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,77; 312,28</t>
+          <t>24,83; 321,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>181,38; 672,02</t>
+          <t>186,31; 712,21</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,91</t>
+          <t>-1,21; 4,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 9,73</t>
+          <t>2,96; 9,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 21,58</t>
+          <t>12,79; 21,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,8</t>
+          <t>1,14; 7,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,65</t>
+          <t>1,92; 8,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,13</t>
+          <t>8,1; 14,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,23</t>
+          <t>0,67; 5,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,05</t>
+          <t>3,4; 8,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 17,15</t>
+          <t>11,58; 16,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 98,53</t>
+          <t>-16,73; 95,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,1; 202,97</t>
+          <t>30,17; 205,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>163,04; 457,76</t>
+          <t>162,16; 461,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 158,92</t>
+          <t>12,18; 149,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 170,5</t>
+          <t>22,89; 168,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>101,17; 302,31</t>
+          <t>97,74; 309,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 97,18</t>
+          <t>9,3; 103,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,06; 154,0</t>
+          <t>44,08; 150,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>156,0; 322,85</t>
+          <t>150,8; 317,72</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,17</t>
+          <t>-0,61; 3,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,28</t>
+          <t>2,29; 7,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,52</t>
+          <t>6,08; 12,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,85</t>
+          <t>-3,03; 1,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,55</t>
+          <t>-0,81; 4,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,59</t>
+          <t>5,08; 10,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,18</t>
+          <t>-1,05; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,32</t>
+          <t>1,47; 5,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,52</t>
+          <t>6,8; 10,84</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 90,37</t>
+          <t>-9,07; 85,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,64; 159,14</t>
+          <t>32,78; 158,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,08; 274,97</t>
+          <t>86,98; 275,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 27,6</t>
+          <t>-32,52; 28,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 67,38</t>
+          <t>-9,67; 70,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,33; 163,16</t>
+          <t>53,66; 161,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 37,38</t>
+          <t>-13,95; 37,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 89,87</t>
+          <t>19,71; 85,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,84; 179,99</t>
+          <t>84,94; 180,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,44</t>
+          <t>-2,77; 3,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,37</t>
+          <t>2,14; 8,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 12,33</t>
+          <t>4,92; 11,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,53</t>
+          <t>-4,84; 1,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,29</t>
+          <t>-1,74; 5,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,09</t>
+          <t>-2,59; 5,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,51</t>
+          <t>-2,92; 1,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,11</t>
+          <t>1,01; 5,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,57</t>
+          <t>1,58; 7,5</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 54,17</t>
+          <t>-29,41; 52,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,32; 133,61</t>
+          <t>19,79; 141,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,32; 197,9</t>
+          <t>52,84; 195,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 18,45</t>
+          <t>-40,97; 19,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 61,54</t>
+          <t>-14,07; 58,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 53,23</t>
+          <t>-20,9; 59,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 19,18</t>
+          <t>-28,31; 20,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,46; 75,54</t>
+          <t>9,6; 73,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,13; 98,26</t>
+          <t>16,24; 93,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,59</t>
+          <t>-2,83; 2,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,61</t>
+          <t>1,5; 7,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,48</t>
+          <t>4,4; 10,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,56</t>
+          <t>0,9; 6,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,25</t>
+          <t>5,39; 11,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,26</t>
+          <t>8,8; 14,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,96</t>
+          <t>-0,25; 3,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,82</t>
+          <t>4,47; 8,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,81</t>
+          <t>7,74; 12,02</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 30,14</t>
+          <t>-25,13; 28,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,67; 86,62</t>
+          <t>12,92; 87,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,46; 122,34</t>
+          <t>36,92; 127,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,0; 79,02</t>
+          <t>8,27; 79,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>45,8; 135,67</t>
+          <t>49,94; 144,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>76,7; 175,31</t>
+          <t>80,57; 182,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 43,44</t>
+          <t>-3,06; 42,68</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>41,17; 98,26</t>
+          <t>41,42; 99,24</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>67,11; 135,2</t>
+          <t>70,44; 133,98</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-0,38; 2,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>3,71; 6,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,96; 12,28</t>
+          <t>8,76; 12,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-0,23; 2,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>2,91; 6,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,14</t>
+          <t>6,64; 10,02</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>0,08; 2,11</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>3,73; 5,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,21; 10,69</t>
+          <t>8,12; 10,82</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 37,52</t>
+          <t>-4,82; 35,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47,44; 103,41</t>
+          <t>44,79; 101,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113,53; 190,41</t>
+          <t>107,25; 186,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,63</t>
+          <t>-2,48; 33,27</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>31,07; 74,0</t>
+          <t>30,8; 76,54</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>71,77; 124,56</t>
+          <t>71,19; 126,13</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,79; 28,32</t>
+          <t>0,9; 27,62</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>42,87; 79,5</t>
+          <t>44,05; 78,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>96,85; 141,62</t>
+          <t>94,7; 144,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 14,37</t>
+          <t>1,38; 14,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,37</t>
+          <t>3,62; 17,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,0; 43,71</t>
+          <t>21,96; 42,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 4,19</t>
+          <t>-10,12; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 14,43</t>
+          <t>-3,09; 13,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 23,09</t>
+          <t>8,22; 23,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,92</t>
+          <t>-2,16; 6,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 13,58</t>
+          <t>3,47; 13,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 29,32</t>
+          <t>17,21; 29,92</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 1424,28</t>
+          <t>-18,32; 1299,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,0; 1865,42</t>
+          <t>16,92; 1565,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>333,0; 4304,36</t>
+          <t>243,1; 3753,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,92; 82,71</t>
+          <t>-77,12; 82,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 230,24</t>
+          <t>-25,26; 212,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,21; 358,05</t>
+          <t>52,35; 380,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 160,0</t>
+          <t>-28,09; 158,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,83; 321,65</t>
+          <t>36,01; 312,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>186,31; 712,21</t>
+          <t>192,08; 713,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,66</t>
+          <t>-1,02; 5,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,96; 9,7</t>
+          <t>2,81; 9,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,79; 21,42</t>
+          <t>12,95; 21,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 7,77</t>
+          <t>0,97; 7,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,49</t>
+          <t>1,62; 8,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,95</t>
+          <t>8,03; 15,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,44</t>
+          <t>0,88; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,12</t>
+          <t>3,31; 8,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,92</t>
+          <t>11,62; 16,99</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 95,97</t>
+          <t>-14,87; 112,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 205,37</t>
+          <t>34,91; 205,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>162,16; 461,81</t>
+          <t>171,06; 455,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,18; 149,97</t>
+          <t>9,79; 145,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,89; 168,88</t>
+          <t>16,72; 159,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,74; 309,27</t>
+          <t>93,16; 291,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 103,99</t>
+          <t>12,85; 104,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,08; 150,01</t>
+          <t>45,86; 165,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>150,8; 317,72</t>
+          <t>159,33; 332,15</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 3,82</t>
+          <t>-0,54; 3,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,4</t>
+          <t>1,98; 7,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,65</t>
+          <t>6,22; 12,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,89</t>
+          <t>-2,96; 1,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 4,73</t>
+          <t>-0,65; 4,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,42</t>
+          <t>5,5; 10,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 2,19</t>
+          <t>-1,15; 2,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 5,1</t>
+          <t>1,31; 4,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 10,84</t>
+          <t>6,67; 10,77</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 85,8</t>
+          <t>-8,4; 82,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32,78; 158,49</t>
+          <t>29,85; 159,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,98; 275,83</t>
+          <t>92,55; 269,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 28,86</t>
+          <t>-32,58; 28,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 70,64</t>
+          <t>-7,12; 67,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,66; 161,86</t>
+          <t>58,83; 160,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 37,63</t>
+          <t>-15,16; 35,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,71; 85,9</t>
+          <t>17,2; 81,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,94; 180,1</t>
+          <t>84,33; 175,51</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 3,2</t>
+          <t>-2,71; 3,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 8,7</t>
+          <t>2,0; 8,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,92; 11,94</t>
+          <t>5,09; 12,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,56</t>
+          <t>-5,14; 1,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 5,17</t>
+          <t>-1,35; 5,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,33</t>
+          <t>-3,08; 5,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,6</t>
+          <t>-2,8; 1,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,91</t>
+          <t>1,19; 5,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 7,5</t>
+          <t>1,59; 7,37</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,41; 52,21</t>
+          <t>-29,8; 58,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,79; 141,05</t>
+          <t>20,58; 139,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,84; 195,84</t>
+          <t>52,68; 198,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 19,5</t>
+          <t>-41,75; 14,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 58,91</t>
+          <t>-11,93; 60,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 59,69</t>
+          <t>-24,59; 58,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,31; 20,87</t>
+          <t>-26,65; 21,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,6; 73,2</t>
+          <t>10,9; 73,69</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,24; 93,11</t>
+          <t>16,2; 92,17</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,47</t>
+          <t>-3,09; 2,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,46</t>
+          <t>1,59; 7,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 10,63</t>
+          <t>4,53; 10,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 6,61</t>
+          <t>0,45; 6,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,68</t>
+          <t>5,2; 11,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,8; 14,78</t>
+          <t>8,91; 14,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 3,84</t>
+          <t>-0,38; 3,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,76</t>
+          <t>4,49; 8,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 12,02</t>
+          <t>7,54; 11,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 28,49</t>
+          <t>-28,0; 25,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,92; 87,13</t>
+          <t>12,8; 91,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,92; 127,99</t>
+          <t>39,5; 119,58</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,27; 79,65</t>
+          <t>4,2; 76,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>49,94; 144,76</t>
+          <t>46,14; 138,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>80,57; 182,3</t>
+          <t>78,67; 180,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 42,68</t>
+          <t>-3,41; 43,52</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>41,42; 99,24</t>
+          <t>41,87; 100,96</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70,44; 133,98</t>
+          <t>70,26; 137,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,35</t>
+          <t>-0,4; 2,42</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,71; 6,63</t>
+          <t>3,9; 6,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,76; 12,35</t>
+          <t>8,81; 12,44</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 2,64</t>
+          <t>-0,25; 2,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,17</t>
+          <t>2,94; 6,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,64; 10,02</t>
+          <t>6,55; 10,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 2,11</t>
+          <t>0,05; 1,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,73; 5,98</t>
+          <t>3,83; 5,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,12; 10,82</t>
+          <t>8,25; 10,77</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 35,81</t>
+          <t>-5,39; 36,1</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>44,79; 101,2</t>
+          <t>48,45; 104,15</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>107,25; 186,23</t>
+          <t>109,48; 185,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,27</t>
+          <t>-2,58; 33,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,8; 76,54</t>
+          <t>31,76; 76,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>71,19; 126,13</t>
+          <t>70,98; 126,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,9; 27,62</t>
+          <t>0,61; 26,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>44,05; 78,93</t>
+          <t>45,3; 80,16</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>94,7; 144,11</t>
+          <t>96,44; 143,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 14,17</t>
+          <t>1,38; 13,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 17,31</t>
+          <t>4,15; 18,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,96; 42,98</t>
+          <t>22,94; 44,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 4,34</t>
+          <t>-9,9; 4,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 13,88</t>
+          <t>-2,3; 13,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 23,24</t>
+          <t>7,98; 23,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 6,83</t>
+          <t>-2,07; 6,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 13,82</t>
+          <t>2,67; 13,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 29,92</t>
+          <t>17,59; 29,3</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 1299,79</t>
+          <t>-1,76; 1491,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,92; 1565,87</t>
+          <t>29,94; 1879,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>243,1; 3753,89</t>
+          <t>301,63; 4985,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-77,12; 82,86</t>
+          <t>-74,93; 74,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 212,12</t>
+          <t>-18,99; 222,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,35; 380,28</t>
+          <t>50,56; 405,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 158,6</t>
+          <t>-30,4; 143,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>36,01; 312,05</t>
+          <t>25,77; 312,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>192,08; 713,91</t>
+          <t>181,38; 672,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 5,21</t>
+          <t>-1,08; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,97</t>
+          <t>2,76; 9,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,95; 21,19</t>
+          <t>12,82; 21,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 7,78</t>
+          <t>1,03; 7,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 8,34</t>
+          <t>1,6; 8,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 15,09</t>
+          <t>8,38; 15,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,32</t>
+          <t>0,85; 5,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,5</t>
+          <t>3,17; 8,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 16,99</t>
+          <t>11,47; 17,15</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 112,45</t>
+          <t>-14,77; 98,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 205,46</t>
+          <t>37,1; 202,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>171,06; 455,24</t>
+          <t>163,04; 457,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 145,89</t>
+          <t>12,67; 158,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 159,74</t>
+          <t>18,16; 170,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,16; 291,2</t>
+          <t>101,17; 302,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 104,94</t>
+          <t>10,78; 97,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>45,86; 165,88</t>
+          <t>44,06; 154,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>159,33; 332,15</t>
+          <t>156,0; 322,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,83</t>
+          <t>-0,66; 4,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,27</t>
+          <t>2,26; 7,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,22; 12,36</t>
+          <t>6,34; 12,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 1,87</t>
+          <t>-3,23; 1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 4,47</t>
+          <t>-0,75; 4,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,34</t>
+          <t>5,36; 10,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,16</t>
+          <t>-0,99; 2,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,98</t>
+          <t>1,53; 5,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 10,77</t>
+          <t>6,56; 10,52</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 82,32</t>
+          <t>-11,18; 90,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>29,85; 159,51</t>
+          <t>30,64; 159,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,55; 269,48</t>
+          <t>93,08; 274,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 28,31</t>
+          <t>-34,43; 27,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 67,23</t>
+          <t>-8,22; 67,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,83; 160,3</t>
+          <t>58,33; 163,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 35,5</t>
+          <t>-13,25; 37,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 81,74</t>
+          <t>19,31; 89,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>84,33; 175,51</t>
+          <t>86,84; 179,99</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 3,6</t>
+          <t>-2,59; 3,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 8,81</t>
+          <t>1,88; 8,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,09; 12,33</t>
+          <t>5,07; 12,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,17</t>
+          <t>-5,07; 1,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 5,37</t>
+          <t>-1,34; 5,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,27</t>
+          <t>-3,17; 5,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,68</t>
+          <t>-2,85; 1,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,83</t>
+          <t>1,13; 6,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,37</t>
+          <t>1,73; 7,57</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,8; 58,72</t>
+          <t>-28,94; 54,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,58; 139,2</t>
+          <t>19,32; 133,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>52,68; 198,09</t>
+          <t>51,32; 197,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 14,23</t>
+          <t>-41,75; 18,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 60,01</t>
+          <t>-10,81; 61,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-24,59; 58,06</t>
+          <t>-27,32; 53,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 21,9</t>
+          <t>-27,8; 19,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,9; 73,69</t>
+          <t>9,46; 75,54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,2; 92,17</t>
+          <t>21,13; 98,26</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,25</t>
+          <t>-3,23; 2,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,87</t>
+          <t>1,52; 7,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,53; 10,24</t>
+          <t>4,22; 10,48</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,32</t>
+          <t>0,74; 6,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,2; 11,39</t>
+          <t>5,17; 11,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 14,58</t>
+          <t>8,72; 14,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 3,69</t>
+          <t>-0,24; 3,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,78</t>
+          <t>4,39; 8,82</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,54; 11,73</t>
+          <t>7,42; 11,81</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 25,73</t>
+          <t>-28,17; 30,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>12,8; 91,26</t>
+          <t>11,67; 86,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>39,5; 119,58</t>
+          <t>36,46; 122,34</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>4,2; 76,56</t>
+          <t>6,0; 79,02</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>46,14; 138,35</t>
+          <t>45,8; 135,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>78,67; 180,97</t>
+          <t>76,7; 175,31</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 43,52</t>
+          <t>-2,4; 43,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>41,87; 100,96</t>
+          <t>41,17; 98,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70,26; 137,0</t>
+          <t>67,11; 135,2</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,42</t>
+          <t>-0,24; 2,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,9; 6,93</t>
+          <t>3,81; 6,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,81; 12,44</t>
+          <t>8,96; 12,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 2,62</t>
+          <t>-0,2; 2,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,06</t>
+          <t>2,98; 5,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,12</t>
+          <t>6,85; 10,14</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,05; 1,99</t>
+          <t>0,16; 2,12</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,98</t>
+          <t>3,7; 6,01</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,77</t>
+          <t>8,21; 10,69</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 36,1</t>
+          <t>-3,37; 37,52</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>48,45; 104,15</t>
+          <t>47,44; 103,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>109,48; 185,74</t>
+          <t>113,53; 190,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 33,02</t>
+          <t>-2,48; 33,63</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>31,76; 76,65</t>
+          <t>31,07; 74,0</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>70,98; 126,56</t>
+          <t>71,77; 124,56</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,61; 26,51</t>
+          <t>1,79; 28,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>45,3; 80,16</t>
+          <t>42,87; 79,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>96,44; 143,38</t>
+          <t>96,85; 141,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,53</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>6,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,52</t>
+          <t>19,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,46</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,42</t>
+          <t>15,42</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 13,64</t>
+          <t>0,13; 5,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,15; 18,11</t>
+          <t>3,94; 9,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,94; 44,19</t>
+          <t>15,47; 23,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 4,18</t>
+          <t>0,4; 6,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 13,46</t>
+          <t>1,91; 8,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 23,72</t>
+          <t>7,47; 14,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 6,74</t>
+          <t>0,88; 4,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 13,66</t>
+          <t>3,74; 8,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 29,3</t>
+          <t>12,44; 18,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>259,72%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>358,49%</t>
+          <t>125,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1121,5%</t>
+          <t>354,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-31,48%</t>
+          <t>44,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>71,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>155,45%</t>
+          <t>165,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,57%</t>
+          <t>47,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>123,46%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>366,8%</t>
+          <t>244,83%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 1491,09</t>
+          <t>-0,29; 128,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,94; 1879,62</t>
+          <t>54,48; 227,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>301,63; 4985,42</t>
+          <t>221,74; 558,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 74,57</t>
+          <t>2,19; 112,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,99; 222,66</t>
+          <t>18,94; 144,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,56; 405,87</t>
+          <t>93,05; 254,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 143,8</t>
+          <t>11,42; 91,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,77; 312,28</t>
+          <t>52,46; 152,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>181,38; 672,02</t>
+          <t>167,62; 336,82</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,98</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,79</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,25</t>
+          <t>7,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,91</t>
+          <t>-0,66; 4,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 9,73</t>
+          <t>2,26; 7,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 21,58</t>
+          <t>0,56; 11,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 7,8</t>
+          <t>-3,23; 1,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,65</t>
+          <t>-0,75; 4,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,13</t>
+          <t>5,44; 10,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,23</t>
+          <t>-0,99; 2,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 8,05</t>
+          <t>1,53; 5,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,47; 17,15</t>
+          <t>2,35; 9,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>102,95%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>282,15%</t>
+          <t>116,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>-7,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>76,28%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>180,04%</t>
+          <t>100,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,47%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>48,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>226,76%</t>
+          <t>104,43%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,77; 98,53</t>
+          <t>-11,18; 90,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,1; 202,97</t>
+          <t>30,64; 159,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>163,04; 457,76</t>
+          <t>13,98; 221,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 158,92</t>
+          <t>-34,43; 27,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,16; 170,5</t>
+          <t>-8,22; 67,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>101,17; 302,31</t>
+          <t>57,76; 163,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 97,18</t>
+          <t>-13,25; 37,38</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>44,06; 154,0</t>
+          <t>19,31; 89,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>156,0; 322,85</t>
+          <t>37,68; 155,13</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,68</t>
+          <t>3,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,17</t>
+          <t>-2,59; 3,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,28</t>
+          <t>1,88; 8,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,34; 12,52</t>
+          <t>5,06; 12,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,85</t>
+          <t>-5,07; 1,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,55</t>
+          <t>-1,34; 5,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 10,59</t>
+          <t>-6,6; 4,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,18</t>
+          <t>-2,85; 1,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,32</t>
+          <t>1,13; 6,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,52</t>
+          <t>-0,76; 6,84</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82,69%</t>
+          <t>69,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>163,95%</t>
+          <t>110,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>-15,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>18,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>100,25%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>-6,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>48,78%</t>
+          <t>39,97%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>126,89%</t>
+          <t>42,77%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 90,37</t>
+          <t>-28,94; 54,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,64; 159,14</t>
+          <t>19,32; 133,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,08; 274,97</t>
+          <t>52,23; 195,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 27,6</t>
+          <t>-41,75; 18,45</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 67,38</t>
+          <t>-10,81; 61,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>58,33; 163,16</t>
+          <t>-51,33; 42,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 37,38</t>
+          <t>-27,8; 19,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19,31; 89,87</t>
+          <t>9,46; 75,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>86,84; 179,99</t>
+          <t>-6,94; 81,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,42</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>8,3</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>10,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>8,78</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,44</t>
+          <t>-3,23; 2,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,37</t>
+          <t>1,52; 7,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,07; 12,33</t>
+          <t>4,05; 10,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,53</t>
+          <t>0,74; 6,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,29</t>
+          <t>5,17; 11,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 5,09</t>
+          <t>6,08; 12,91</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,51</t>
+          <t>-0,24; 3,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,11</t>
+          <t>4,39; 8,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,57</t>
+          <t>6,02; 11,14</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>-3,81%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>109,94%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,82%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>105,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>90,34%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 54,17</t>
+          <t>-28,17; 30,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,32; 133,61</t>
+          <t>11,67; 86,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>51,32; 197,9</t>
+          <t>35,08; 125,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 18,45</t>
+          <t>6,0; 79,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 61,54</t>
+          <t>45,8; 135,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,32; 53,23</t>
+          <t>57,83; 156,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 19,18</t>
+          <t>-2,4; 43,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,46; 75,54</t>
+          <t>41,17; 98,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,13; 98,26</t>
+          <t>56,08; 126,51</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>11,61</t>
+          <t>7,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>4,85</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,64</t>
+          <t>8,44</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,59</t>
+          <t>-0,24; 2,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,61</t>
+          <t>3,81; 6,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,22; 10,48</t>
+          <t>6,07; 11,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,56</t>
+          <t>-0,2; 2,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,25</t>
+          <t>2,98; 5,98</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,72; 14,26</t>
+          <t>4,77; 9,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,96</t>
+          <t>0,16; 2,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,82</t>
+          <t>3,7; 6,01</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,81</t>
+          <t>6,31; 9,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>47,06%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>129,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>50,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>121,47%</t>
+          <t>85,2%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>105,1%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 30,14</t>
+          <t>-3,37; 37,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>11,67; 86,62</t>
+          <t>47,44; 103,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,46; 122,34</t>
+          <t>85,45; 173,84</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,0; 79,02</t>
+          <t>-2,48; 33,63</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>45,8; 135,67</t>
+          <t>31,07; 74,0</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>76,7; 175,31</t>
+          <t>52,88; 113,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 43,44</t>
+          <t>1,79; 28,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>41,17; 98,26</t>
+          <t>42,87; 79,5</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>67,11; 135,2</t>
+          <t>75,93; 130,08</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>5,27</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>10,54</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>4,44</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>8,6</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>4,85</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>9,54</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 2,48</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>3,81; 6,81</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>8,96; 12,28</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 2,7</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>2,98; 5,98</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>6,85; 10,14</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 2,12</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 6,01</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>8,21; 10,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>14,21%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>72,35%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>144,67%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>13,55%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>50,66%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>98,11%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>13,88%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>60,37%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>118,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-3,37; 37,52</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>47,44; 103,41</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>113,53; 190,41</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 33,63</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>31,07; 74,0</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>71,77; 124,56</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 28,32</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>42,87; 79,5</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>96,85; 141,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,55</t>
+          <t>-0,08; 5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,94; 9,98</t>
+          <t>3,72; 9,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 23,65</t>
+          <t>15,69; 23,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,52</t>
+          <t>0,05; 6,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 8,5</t>
+          <t>1,9; 8,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,47; 14,89</t>
+          <t>7,15; 14,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,87</t>
+          <t>1,04; 4,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,14</t>
+          <t>4,05; 8,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 18,0</t>
+          <t>12,4; 17,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 128,24</t>
+          <t>-2,7; 120,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>54,48; 227,02</t>
+          <t>49,9; 222,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>221,74; 558,98</t>
+          <t>220,41; 545,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 112,36</t>
+          <t>-0,44; 105,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,94; 144,04</t>
+          <t>21,15; 133,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,05; 254,93</t>
+          <t>84,04; 253,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,42; 91,41</t>
+          <t>13,6; 90,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>52,46; 152,56</t>
+          <t>57,42; 151,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>167,62; 336,82</t>
+          <t>173,42; 329,43</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,17</t>
+          <t>-0,62; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,28</t>
+          <t>2,3; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 11,13</t>
+          <t>0,62; 10,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 1,85</t>
+          <t>-3,14; 1,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,55</t>
+          <t>-0,69; 4,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,64</t>
+          <t>5,53; 10,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 2,18</t>
+          <t>-1,03; 2,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,32</t>
+          <t>1,3; 5,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 9,61</t>
+          <t>2,32; 9,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 90,37</t>
+          <t>-9,12; 84,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 159,14</t>
+          <t>31,22; 161,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,98; 221,66</t>
+          <t>20,55; 216,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 27,6</t>
+          <t>-33,08; 23,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 67,38</t>
+          <t>-7,86; 66,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,76; 163,0</t>
+          <t>55,65; 156,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 37,38</t>
+          <t>-13,97; 38,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,31; 89,87</t>
+          <t>17,39; 88,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,68; 155,13</t>
+          <t>32,2; 152,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,44</t>
+          <t>-2,98; 3,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,37</t>
+          <t>2,01; 8,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 12,31</t>
+          <t>5,23; 12,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 1,53</t>
+          <t>-4,74; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,29</t>
+          <t>-1,21; 5,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 4,19</t>
+          <t>-6,02; 4,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,51</t>
+          <t>-2,82; 1,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,11</t>
+          <t>1,18; 5,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 6,84</t>
+          <t>-0,53; 6,49</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 54,17</t>
+          <t>-31,4; 51,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,32; 133,61</t>
+          <t>20,57; 137,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,23; 195,8</t>
+          <t>51,91; 202,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-41,75; 18,45</t>
+          <t>-39,54; 19,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 61,54</t>
+          <t>-10,96; 64,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-51,33; 42,23</t>
+          <t>-49,17; 45,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 19,18</t>
+          <t>-27,93; 18,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,46; 75,54</t>
+          <t>11,69; 76,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 81,59</t>
+          <t>-2,66; 79,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,59</t>
+          <t>-3,27; 2,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,61</t>
+          <t>1,64; 7,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 10,54</t>
+          <t>4,24; 10,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,56</t>
+          <t>0,74; 6,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 11,25</t>
+          <t>5,15; 11,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,91</t>
+          <t>5,58; 13,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 3,96</t>
+          <t>-0,27; 3,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,82</t>
+          <t>4,48; 8,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,14</t>
+          <t>5,95; 11,07</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,17; 30,14</t>
+          <t>-28,26; 24,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,67; 86,62</t>
+          <t>13,77; 87,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>35,08; 125,22</t>
+          <t>37,01; 128,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,0; 79,02</t>
+          <t>7,26; 77,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>45,8; 135,67</t>
+          <t>44,75; 139,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>57,83; 156,24</t>
+          <t>55,56; 157,52</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 43,44</t>
+          <t>-2,85; 41,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>41,17; 98,26</t>
+          <t>42,21; 99,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>56,08; 126,51</t>
+          <t>57,51; 128,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 2,48</t>
+          <t>-0,29; 2,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,81</t>
+          <t>3,83; 6,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,58</t>
+          <t>5,45; 11,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,7</t>
+          <t>-0,36; 2,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,98; 5,98</t>
+          <t>2,91; 6,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,29</t>
+          <t>4,28; 9,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,16; 2,12</t>
+          <t>0,07; 2,06</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,7; 6,01</t>
+          <t>3,75; 5,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,87</t>
+          <t>6,19; 9,98</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 37,52</t>
+          <t>-3,68; 36,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>47,44; 103,41</t>
+          <t>47,33; 102,2</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>85,45; 173,84</t>
+          <t>74,99; 171,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 33,63</t>
+          <t>-3,77; 32,41</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>31,07; 74,0</t>
+          <t>30,85; 75,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>52,88; 113,18</t>
+          <t>46,84; 112,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,79; 28,32</t>
+          <t>0,53; 26,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>42,87; 79,5</t>
+          <t>44,27; 77,23</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>75,93; 130,08</t>
+          <t>74,99; 130,52</t>
         </is>
       </c>
     </row>
